--- a/starter_files/Bruce/Model Returns.xlsx
+++ b/starter_files/Bruce/Model Returns.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/816b9cc1b8e7bb9c/Documents/GitHub/Project2/Market_Movement_Indicators/starter_files/Bruce/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="560" documentId="8_{4943D7CE-08A2-4E68-99B8-99D7C92FFB9D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{AF34FDAE-8738-452D-AA77-C62DCD9E6730}"/>
+  <xr:revisionPtr revIDLastSave="617" documentId="8_{4943D7CE-08A2-4E68-99B8-99D7C92FFB9D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{1A6CB8F6-E10A-45B7-B6F7-628023E8F899}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1AC09196-06DD-4F89-AD5E-F0A56DDE3AC5}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="36">
   <si>
     <t>Jun 98 - 2000</t>
   </si>
@@ -126,6 +126,21 @@
   </si>
   <si>
     <t>CGr model PL</t>
+  </si>
+  <si>
+    <t>PL</t>
+  </si>
+  <si>
+    <t>Period_%</t>
+  </si>
+  <si>
+    <t>LTD_%_ret</t>
+  </si>
+  <si>
+    <t>Ending_Cap</t>
+  </si>
+  <si>
+    <t>Hit_Ratio</t>
   </si>
 </sst>
 </file>
@@ -135,7 +150,7 @@
   <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0%"/>
-    <numFmt numFmtId="171" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -348,7 +363,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -358,20 +373,20 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="171" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="171" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="171" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="171" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -380,30 +395,30 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="4" fillId="4" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="4" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="4" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="0" fillId="4" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="4" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="0" fillId="5" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -418,12 +433,13 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -742,8 +758,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACA4AD22-8D1B-44E4-A6C3-5D8D611D2DBC}">
   <dimension ref="A1:V43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G8" workbookViewId="0">
-      <selection activeCell="K20" sqref="K19:K20"/>
+    <sheetView tabSelected="1" topLeftCell="J17" workbookViewId="0">
+      <selection activeCell="V30" sqref="V30:V42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -763,7 +779,8 @@
     <col min="17" max="17" width="13.5546875" customWidth="1"/>
     <col min="18" max="18" width="16.44140625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="15" customWidth="1"/>
-    <col min="20" max="20" width="19.21875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
@@ -853,11 +870,11 @@
         <v>4919.25</v>
       </c>
       <c r="K3" s="12">
-        <f>F3+K2</f>
+        <f t="shared" ref="K3:K13" si="0">F3+K2</f>
         <v>109203</v>
       </c>
       <c r="L3" s="13">
-        <f>K3/K2-1</f>
+        <f t="shared" ref="L3:L13" si="1">K3/K2-1</f>
         <v>9.2030000000000056E-2</v>
       </c>
       <c r="M3" s="10"/>
@@ -909,15 +926,15 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="J4" s="9">
-        <f t="shared" ref="J4:J13" si="0">H4+F4</f>
+        <f t="shared" ref="J4:J13" si="2">H4+F4</f>
         <v>12349.75</v>
       </c>
       <c r="K4" s="12">
-        <f>F4+K3</f>
+        <f t="shared" si="0"/>
         <v>124624.25</v>
       </c>
       <c r="L4" s="13">
-        <f>K4/K3-1</f>
+        <f t="shared" si="1"/>
         <v>0.14121635852494885</v>
       </c>
       <c r="M4" s="10"/>
@@ -950,7 +967,7 @@
         <v>0.1492</v>
       </c>
       <c r="C5" s="5">
-        <f t="shared" ref="C5:C13" si="1">(1+B5)*(1+C4)-1</f>
+        <f t="shared" ref="C5:C13" si="3">(1+B5)*(1+C4)-1</f>
         <v>0.47967433617120014</v>
       </c>
       <c r="D5">
@@ -972,15 +989,15 @@
         <v>0.6</v>
       </c>
       <c r="J5" s="9">
+        <f t="shared" si="2"/>
+        <v>20450.75</v>
+      </c>
+      <c r="K5" s="12">
         <f t="shared" si="0"/>
-        <v>20450.75</v>
-      </c>
-      <c r="K5" s="12">
-        <f>F5+K4</f>
         <v>136783.5</v>
       </c>
       <c r="L5" s="13">
-        <f>K5/K4-1</f>
+        <f t="shared" si="1"/>
         <v>9.7567287265520219E-2</v>
       </c>
       <c r="M5" s="10"/>
@@ -1014,7 +1031,7 @@
         <v>6.9000000000000006E-2</v>
       </c>
       <c r="C6" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.58177186536701297</v>
       </c>
       <c r="D6">
@@ -1036,15 +1053,15 @@
         <v>0.44444444444444442</v>
       </c>
       <c r="J6" s="9">
+        <f t="shared" si="2"/>
+        <v>10874.75</v>
+      </c>
+      <c r="K6" s="12">
         <f t="shared" si="0"/>
-        <v>10874.75</v>
-      </c>
-      <c r="K6" s="12">
-        <f>F6+K5</f>
         <v>140014</v>
       </c>
       <c r="L6" s="13">
-        <f>K6/K5-1</f>
+        <f t="shared" si="1"/>
         <v>2.3617614697679201E-2</v>
       </c>
       <c r="M6" s="10"/>
@@ -1074,7 +1091,7 @@
         <v>3.5700000000000003E-2</v>
       </c>
       <c r="C7" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.63824112096061536</v>
       </c>
       <c r="D7">
@@ -1096,15 +1113,15 @@
         <v>0.375</v>
       </c>
       <c r="J7" s="9">
+        <f t="shared" si="2"/>
+        <v>6013.5</v>
+      </c>
+      <c r="K7" s="12">
         <f t="shared" si="0"/>
-        <v>6013.5</v>
-      </c>
-      <c r="K7" s="12">
-        <f>F7+K6</f>
         <v>146686.5</v>
       </c>
       <c r="L7" s="13">
-        <f>K7/K6-1</f>
+        <f t="shared" si="1"/>
         <v>4.7655948690845218E-2</v>
       </c>
       <c r="M7" s="10"/>
@@ -1134,7 +1151,7 @@
         <v>-0.1082</v>
       </c>
       <c r="C8" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.46098343167267686</v>
       </c>
       <c r="D8">
@@ -1156,15 +1173,15 @@
         <v>0.46153846153846156</v>
       </c>
       <c r="J8" s="9">
+        <f t="shared" si="2"/>
+        <v>-18870</v>
+      </c>
+      <c r="K8" s="12">
         <f t="shared" si="0"/>
-        <v>-18870</v>
-      </c>
-      <c r="K8" s="12">
-        <f>F8+K7</f>
         <v>126328.75</v>
       </c>
       <c r="L8" s="13">
-        <f>K8/K7-1</f>
+        <f t="shared" si="1"/>
         <v>-0.13878407351733113</v>
       </c>
       <c r="M8" s="10"/>
@@ -1198,7 +1215,7 @@
         <v>0.1166</v>
       </c>
       <c r="C9" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.63133409980571109</v>
       </c>
       <c r="D9">
@@ -1220,15 +1237,15 @@
         <v>0.75</v>
       </c>
       <c r="J9" s="9">
+        <f t="shared" si="2"/>
+        <v>18133.75</v>
+      </c>
+      <c r="K9" s="12">
         <f t="shared" si="0"/>
-        <v>18133.75</v>
-      </c>
-      <c r="K9" s="12">
-        <f>F9+K8</f>
         <v>140516</v>
       </c>
       <c r="L9" s="13">
-        <f>K9/K8-1</f>
+        <f t="shared" si="1"/>
         <v>0.11230420628716731</v>
       </c>
       <c r="M9" s="10"/>
@@ -1258,7 +1275,7 @@
         <v>5.9799999999999999E-2</v>
       </c>
       <c r="C10" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.72888787897409268</v>
       </c>
       <c r="D10">
@@ -1280,15 +1297,15 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="J10" s="9">
+        <f t="shared" si="2"/>
+        <v>10382.25</v>
+      </c>
+      <c r="K10" s="12">
         <f t="shared" si="0"/>
-        <v>10382.25</v>
-      </c>
-      <c r="K10" s="12">
-        <f>F10+K9</f>
         <v>153049.75</v>
       </c>
       <c r="L10" s="13">
-        <f>K10/K9-1</f>
+        <f t="shared" si="1"/>
         <v>8.9198027270915858E-2</v>
       </c>
       <c r="M10" s="10"/>
@@ -1318,7 +1335,7 @@
         <v>7.2677305374009835E-2</v>
       </c>
       <c r="C11" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.85453879131171684</v>
       </c>
       <c r="D11">
@@ -1340,15 +1357,15 @@
         <v>0.42857142857142855</v>
       </c>
       <c r="J11" s="9">
+        <f t="shared" si="2"/>
+        <v>13374.75</v>
+      </c>
+      <c r="K11" s="12">
         <f t="shared" si="0"/>
-        <v>13374.75</v>
-      </c>
-      <c r="K11" s="12">
-        <f>F11+K10</f>
         <v>170551</v>
       </c>
       <c r="L11" s="13">
-        <f>K11/K10-1</f>
+        <f t="shared" si="1"/>
         <v>0.11435007244376427</v>
       </c>
       <c r="M11" s="10"/>
@@ -1378,7 +1395,7 @@
         <v>-2.6236803712184151E-2</v>
       </c>
       <c r="C12" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.80588162106743999</v>
       </c>
       <c r="D12">
@@ -1400,15 +1417,15 @@
         <v>0.5</v>
       </c>
       <c r="J12" s="9">
+        <f t="shared" si="2"/>
+        <v>-5179.25</v>
+      </c>
+      <c r="K12" s="12">
         <f t="shared" si="0"/>
-        <v>-5179.25</v>
-      </c>
-      <c r="K12" s="12">
-        <f>F12+K11</f>
         <v>172003.5</v>
       </c>
       <c r="L12" s="13">
-        <f>K12/K11-1</f>
+        <f t="shared" si="1"/>
         <v>8.5165141218754847E-3</v>
       </c>
       <c r="M12" s="10"/>
@@ -1438,7 +1455,7 @@
         <v>5.79E-2</v>
       </c>
       <c r="C13" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.91044216692724489</v>
       </c>
       <c r="D13">
@@ -1460,15 +1477,15 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="J13" s="9">
+        <f t="shared" si="2"/>
+        <v>11134.899999999994</v>
+      </c>
+      <c r="K13" s="12">
         <f t="shared" si="0"/>
-        <v>11134.899999999994</v>
-      </c>
-      <c r="K13" s="12">
-        <f>F13+K12</f>
         <v>180736</v>
       </c>
       <c r="L13" s="13">
-        <f>K13/K12-1</f>
+        <f t="shared" si="1"/>
         <v>5.0769315740668119E-2</v>
       </c>
       <c r="M13" s="14">
@@ -1584,11 +1601,11 @@
         <v>3</v>
       </c>
       <c r="B18" s="4">
-        <f t="shared" ref="B18:B35" si="2">B17</f>
+        <f t="shared" ref="B18:B35" si="4">B17</f>
         <v>3.6150000000000002E-2</v>
       </c>
       <c r="C18" s="5">
-        <f t="shared" ref="C18:C35" si="3">(1+B18)*(1+C17)-1</f>
+        <f t="shared" ref="C18:C35" si="5">(1+B18)*(1+C17)-1</f>
         <v>0.11241770913337468</v>
       </c>
       <c r="M18" s="32">
@@ -1610,7 +1627,7 @@
         <v>18406</v>
       </c>
       <c r="R18" s="38">
-        <f>Q3</f>
+        <f t="shared" ref="R18:R28" si="6">Q3</f>
         <v>9.2030000000000001E-2</v>
       </c>
       <c r="S18" s="26">
@@ -1626,15 +1643,15 @@
         <v>4</v>
       </c>
       <c r="B19" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3.6150000000000002E-2</v>
       </c>
       <c r="C19" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.15263160931854602</v>
       </c>
       <c r="M19" s="32">
-        <f t="shared" ref="M19:M28" si="4">N4</f>
+        <f t="shared" ref="M19:M28" si="7">N4</f>
         <v>0.25797249999999999</v>
       </c>
       <c r="N19" s="23">
@@ -1652,7 +1669,7 @@
         <v>35985.43566568684</v>
       </c>
       <c r="R19" s="38">
-        <f>Q4</f>
+        <f t="shared" si="6"/>
         <v>0.1519578216715658</v>
       </c>
       <c r="S19" s="26">
@@ -1668,17 +1685,17 @@
         <v>5</v>
       </c>
       <c r="B20" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3.6150000000000002E-2</v>
       </c>
       <c r="C20" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.19429924199541126</v>
       </c>
       <c r="K20" s="9"/>
       <c r="L20" s="15"/>
       <c r="M20" s="32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.36808249999999998</v>
       </c>
       <c r="N20" s="23">
@@ -1696,7 +1713,7 @@
         <v>27027.683007615477</v>
       </c>
       <c r="R20" s="38">
-        <f>Q5</f>
+        <f t="shared" si="6"/>
         <v>8.7529735347950777E-2</v>
       </c>
       <c r="S20" s="37">
@@ -1712,19 +1729,19 @@
         <v>6</v>
       </c>
       <c r="B21" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3.6150000000000002E-2</v>
       </c>
       <c r="C21" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.23747315959354531</v>
       </c>
       <c r="M21" s="32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.41453000000000001</v>
       </c>
       <c r="N21" s="23">
-        <f t="shared" ref="N21:N28" si="5">(1+N20)*(1+S21)-1</f>
+        <f t="shared" ref="N21:N28" si="8">(1+N20)*(1+S21)-1</f>
         <v>0.93737768337453731</v>
       </c>
       <c r="O21" s="43" t="s">
@@ -1738,7 +1755,7 @@
         <v>12318.64966415141</v>
       </c>
       <c r="R21" s="38">
-        <f>Q6</f>
+        <f t="shared" si="6"/>
         <v>3.3950803405496381E-2</v>
       </c>
       <c r="S21" s="26">
@@ -1754,20 +1771,20 @@
         <v>7</v>
       </c>
       <c r="B22" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3.6150000000000002E-2</v>
       </c>
       <c r="C22" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.28220781431285191</v>
       </c>
       <c r="H22" s="4"/>
       <c r="M22" s="32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.4709525</v>
       </c>
       <c r="N22" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.0919331786135209</v>
       </c>
       <c r="O22" s="43" t="s">
@@ -1781,7 +1798,7 @@
         <v>15455.549523898371</v>
       </c>
       <c r="R22" s="38">
-        <f>Q7</f>
+        <f t="shared" si="6"/>
         <v>3.9887807257534304E-2</v>
       </c>
       <c r="S22" s="26">
@@ -1797,21 +1814,21 @@
         <v>8</v>
       </c>
       <c r="B23" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3.6150000000000002E-2</v>
       </c>
       <c r="C23" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.3285596268002613</v>
       </c>
       <c r="H23" s="4"/>
       <c r="I23" s="5"/>
       <c r="M23" s="32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.29858750000000001</v>
       </c>
       <c r="N23" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0.60167117174148443</v>
       </c>
       <c r="O23" s="43" t="s">
@@ -1825,7 +1842,7 @@
         <v>-49026.200687203644</v>
       </c>
       <c r="R23" s="38">
-        <f>Q8</f>
+        <f t="shared" si="6"/>
         <v>-0.11717917471842225</v>
       </c>
       <c r="S23" s="26">
@@ -1841,21 +1858,21 @@
         <v>9</v>
       </c>
       <c r="B24" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3.6150000000000002E-2</v>
       </c>
       <c r="C24" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.37658705730909059</v>
       </c>
       <c r="H24" s="4"/>
       <c r="I24" s="5"/>
       <c r="M24" s="32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.41914249999999997</v>
       </c>
       <c r="N24" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0.89905501088870343</v>
       </c>
       <c r="O24" s="43" t="s">
@@ -1869,7 +1886,7 @@
         <v>29738.383914721904</v>
       </c>
       <c r="R24" s="38">
-        <f>Q9</f>
+        <f t="shared" si="6"/>
         <v>9.283548470934766E-2</v>
       </c>
       <c r="S24" s="26">
@@ -1885,21 +1902,21 @@
         <v>10</v>
       </c>
       <c r="B25" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3.6150000000000002E-2</v>
       </c>
       <c r="C25" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.42635067943081406</v>
       </c>
       <c r="H25" s="4"/>
       <c r="I25" s="5"/>
       <c r="M25" s="32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.52229499999999995</v>
       </c>
       <c r="N25" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.175126331437129</v>
       </c>
       <c r="O25" s="43" t="s">
@@ -1913,7 +1930,7 @@
         <v>27607.132054842554</v>
       </c>
       <c r="R25" s="38">
-        <f>Q10</f>
+        <f t="shared" si="6"/>
         <v>7.2686499065456781E-2</v>
       </c>
       <c r="S25" s="26">
@@ -1929,21 +1946,21 @@
         <v>11</v>
       </c>
       <c r="B26" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3.6150000000000002E-2</v>
       </c>
       <c r="C26" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.47791325649223793</v>
       </c>
       <c r="H26" s="4"/>
       <c r="I26" s="5"/>
       <c r="M26" s="32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.66718500000000003</v>
       </c>
       <c r="N26" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.5891775556241963</v>
       </c>
       <c r="O26" s="43" t="s">
@@ -1957,7 +1974,7 @@
         <v>41405.122418706713</v>
       </c>
       <c r="R26" s="38">
-        <f>Q11</f>
+        <f t="shared" si="6"/>
         <v>9.5178661166199718E-2</v>
       </c>
       <c r="S26" s="26">
@@ -1973,21 +1990,21 @@
         <v>12</v>
       </c>
       <c r="B27" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3.6150000000000002E-2</v>
       </c>
       <c r="C27" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.5313398207144322</v>
       </c>
       <c r="H27" s="4"/>
       <c r="I27" s="5"/>
       <c r="M27" s="32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.67962750000000005</v>
       </c>
       <c r="N27" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.6278245464930614</v>
       </c>
       <c r="O27" s="43" t="s">
@@ -2001,7 +2018,7 @@
         <v>3864.6990868864659</v>
       </c>
       <c r="R27" s="38">
-        <f>Q12</f>
+        <f t="shared" si="6"/>
         <v>7.4631789513461312E-3</v>
       </c>
       <c r="S27" s="26">
@@ -2020,21 +2037,21 @@
         <v>13</v>
       </c>
       <c r="B28" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3.6150000000000002E-2</v>
       </c>
       <c r="C28" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.58669775523325884</v>
       </c>
       <c r="H28" s="4"/>
       <c r="I28" s="5"/>
       <c r="M28" s="49">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.7566425</v>
       </c>
       <c r="N28" s="48">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.868808821218455</v>
       </c>
       <c r="O28" s="44" t="s">
@@ -2048,7 +2065,7 @@
         <v>24098.427472539373</v>
       </c>
       <c r="R28" s="39">
-        <f>Q13</f>
+        <f t="shared" si="6"/>
         <v>4.5852428589077045E-2</v>
       </c>
       <c r="S28" s="27">
@@ -2064,11 +2081,11 @@
         <v>14</v>
       </c>
       <c r="B29" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3.6150000000000002E-2</v>
       </c>
       <c r="C29" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.64405687908494103</v>
       </c>
       <c r="H29" s="4"/>
@@ -2094,87 +2111,176 @@
         <v>15</v>
       </c>
       <c r="B30" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3.6150000000000002E-2</v>
       </c>
       <c r="C30" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.70348953526386149</v>
       </c>
       <c r="H30" s="4"/>
       <c r="I30" s="5"/>
+      <c r="R30" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S30" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="T30" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="U30" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="V30" s="1" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>16</v>
       </c>
       <c r="B31" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3.6150000000000002E-2</v>
       </c>
       <c r="C31" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.76507068196364991</v>
       </c>
       <c r="H31" s="4"/>
       <c r="I31" s="5"/>
+      <c r="Q31" s="55">
+        <v>35961</v>
+      </c>
+      <c r="R31" s="29">
+        <v>0</v>
+      </c>
+      <c r="S31" s="29">
+        <v>100000</v>
+      </c>
+      <c r="T31" s="4">
+        <v>0</v>
+      </c>
+      <c r="U31" s="2">
+        <v>0</v>
+      </c>
+      <c r="V31" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>17</v>
       </c>
       <c r="B32" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3.6150000000000002E-2</v>
       </c>
       <c r="C32" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.82887798711663563</v>
       </c>
       <c r="H32" s="4"/>
       <c r="I32" s="5"/>
-      <c r="Q32" s="15"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="Q32" s="55">
+        <v>43997</v>
+      </c>
+      <c r="R32" s="29">
+        <v>18406</v>
+      </c>
+      <c r="S32" s="29">
+        <f>R32+100000</f>
+        <v>118406</v>
+      </c>
+      <c r="T32" s="4">
+        <v>0.18406</v>
+      </c>
+      <c r="U32" s="2">
+        <v>0.18406</v>
+      </c>
+      <c r="V32" s="2">
+        <v>0.54545454545454541</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>18</v>
       </c>
       <c r="B33" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3.6150000000000002E-2</v>
       </c>
       <c r="C33" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.89499192635090186</v>
       </c>
       <c r="H33" s="4"/>
       <c r="I33" s="5"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="Q33" s="55">
+        <v>36692</v>
+      </c>
+      <c r="R33" s="29">
+        <v>35985.43566568684</v>
+      </c>
+      <c r="S33" s="29">
+        <f>R33+S32</f>
+        <v>154391.43566568685</v>
+      </c>
+      <c r="T33" s="4">
+        <v>0.30391564334313159</v>
+      </c>
+      <c r="U33" s="2">
+        <v>0.54391435665686849</v>
+      </c>
+      <c r="V33" s="2">
+        <v>0.63636363636363635</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>19</v>
       </c>
       <c r="B34" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3.6150000000000002E-2</v>
       </c>
       <c r="C34" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.96349588448848689</v>
       </c>
       <c r="H34" s="4"/>
       <c r="I34" s="5"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="Q34" s="55">
+        <v>37422</v>
+      </c>
+      <c r="R34" s="29">
+        <v>27027.683007615477</v>
+      </c>
+      <c r="S34" s="29">
+        <f t="shared" ref="S34:S42" si="9">R34+S33</f>
+        <v>181419.11867330232</v>
+      </c>
+      <c r="T34" s="4">
+        <v>0.17505947069590155</v>
+      </c>
+      <c r="U34" s="2">
+        <v>0.81419118673302315</v>
+      </c>
+      <c r="V34" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>20</v>
       </c>
       <c r="B35" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3.6150000000000002E-2</v>
       </c>
       <c r="C35" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.0344762607127453</v>
       </c>
       <c r="E35">
@@ -2183,36 +2289,188 @@
       </c>
       <c r="H35" s="4"/>
       <c r="I35" s="5"/>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="Q35" s="55">
+        <v>38153</v>
+      </c>
+      <c r="R35" s="29">
+        <v>12318.64966415141</v>
+      </c>
+      <c r="S35" s="29">
+        <f t="shared" si="9"/>
+        <v>193737.76833745372</v>
+      </c>
+      <c r="T35" s="4">
+        <v>6.7901606810992762E-2</v>
+      </c>
+      <c r="U35" s="2">
+        <v>0.93737768337453731</v>
+      </c>
+      <c r="V35" s="2">
+        <v>0.69230769230769229</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.3">
       <c r="H36" s="4"/>
       <c r="I36" s="5"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="Q36" s="55">
+        <v>38883</v>
+      </c>
+      <c r="R36" s="29">
+        <v>15455.549523898371</v>
+      </c>
+      <c r="S36" s="29">
+        <f t="shared" si="9"/>
+        <v>209193.31786135209</v>
+      </c>
+      <c r="T36" s="4">
+        <v>7.9775614515068607E-2</v>
+      </c>
+      <c r="U36" s="2">
+        <v>1.0919331786135209</v>
+      </c>
+      <c r="V36" s="2">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.3">
       <c r="H37" s="4"/>
       <c r="I37" s="5"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="Q37" s="55">
+        <v>39614</v>
+      </c>
+      <c r="R37" s="29">
+        <v>-49026.200687203644</v>
+      </c>
+      <c r="S37" s="29">
+        <f t="shared" si="9"/>
+        <v>160167.11717414844</v>
+      </c>
+      <c r="T37" s="4">
+        <v>-0.2343583494368445</v>
+      </c>
+      <c r="U37" s="2">
+        <v>0.60167117174148443</v>
+      </c>
+      <c r="V37" s="2">
+        <v>0.45454545454545453</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.3">
       <c r="H38" s="4"/>
       <c r="I38" s="5"/>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="Q38" s="55">
+        <v>40344</v>
+      </c>
+      <c r="R38" s="29">
+        <v>29738.383914721904</v>
+      </c>
+      <c r="S38" s="29">
+        <f t="shared" si="9"/>
+        <v>189905.50108887034</v>
+      </c>
+      <c r="T38" s="4">
+        <v>0.18567096941869532</v>
+      </c>
+      <c r="U38" s="2">
+        <v>0.89905501088870343</v>
+      </c>
+      <c r="V38" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" x14ac:dyDescent="0.3">
       <c r="H39" s="4"/>
       <c r="I39" s="5"/>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="Q39" s="55">
+        <v>41075</v>
+      </c>
+      <c r="R39" s="29">
+        <v>27607.132054842554</v>
+      </c>
+      <c r="S39" s="29">
+        <f t="shared" si="9"/>
+        <v>217512.63314371288</v>
+      </c>
+      <c r="T39" s="4">
+        <v>0.14537299813091356</v>
+      </c>
+      <c r="U39" s="2">
+        <v>1.175126331437129</v>
+      </c>
+      <c r="V39" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.3">
       <c r="H40" s="4"/>
       <c r="I40" s="5"/>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="Q40" s="55">
+        <v>41805</v>
+      </c>
+      <c r="R40" s="29">
+        <v>41405.122418706713</v>
+      </c>
+      <c r="S40" s="29">
+        <f t="shared" si="9"/>
+        <v>258917.7555624196</v>
+      </c>
+      <c r="T40" s="4">
+        <v>0.19035732233239944</v>
+      </c>
+      <c r="U40" s="2">
+        <v>1.5891775556241963</v>
+      </c>
+      <c r="V40" s="2">
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22" x14ac:dyDescent="0.3">
       <c r="H41" s="4"/>
       <c r="I41" s="5"/>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="Q41" s="55">
+        <v>42536</v>
+      </c>
+      <c r="R41" s="29">
+        <v>3864.6990868864659</v>
+      </c>
+      <c r="S41" s="29">
+        <f t="shared" si="9"/>
+        <v>262782.45464930608</v>
+      </c>
+      <c r="T41" s="4">
+        <v>1.4926357902692262E-2</v>
+      </c>
+      <c r="U41" s="2">
+        <v>1.6278245464930614</v>
+      </c>
+      <c r="V41" s="2">
+        <v>0.55555555555555558</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22" x14ac:dyDescent="0.3">
       <c r="H42" s="4"/>
       <c r="I42" s="5"/>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="Q42" s="55">
+        <v>43266</v>
+      </c>
+      <c r="R42" s="30">
+        <v>24098.427472539373</v>
+      </c>
+      <c r="S42" s="29">
+        <f t="shared" si="9"/>
+        <v>286880.88212184544</v>
+      </c>
+      <c r="T42" s="4">
+        <v>9.1704857178154089E-2</v>
+      </c>
+      <c r="U42" s="3">
+        <v>1.868808821218455</v>
+      </c>
+      <c r="V42" s="2">
+        <v>0.7142857142857143</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22" x14ac:dyDescent="0.3">
       <c r="H43" s="4"/>
       <c r="I43" s="5"/>
     </row>
